--- a/BrainwaveStudio/DevData/Doc/개발이슈.xlsx
+++ b/BrainwaveStudio/DevData/Doc/개발이슈.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>Splash scene 디자인 해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer 관련한 이미지는 Concept 만 잡고, 지금까지 진행된 사항을 다 적용한 다음에 적용할 것, &gt; 프로젝트 진행이 너무 늦어 지고 있음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +630,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -702,9 +706,13 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:3" ht="27">
+      <c r="A8" s="2">
+        <v>41574</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">

--- a/BrainwaveStudio/DevData/Doc/개발이슈.xlsx
+++ b/BrainwaveStudio/DevData/Doc/개발이슈.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
